--- a/Assets/06.Table/BokPass.xlsx
+++ b/Assets/06.Table/BokPass.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409B048-00A9-46F3-9C87-33152B28FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EDABBF-B017-4ECE-8537-DE510719DADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BokPass" sheetId="1" r:id="rId1"/>
+    <sheet name="Balance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +53,74 @@
   </si>
   <si>
     <t>unlockAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급 되는 재화 량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸수 배분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1칸당 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 지급 되는 재화량 검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴불꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천도 복숭아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼열쇠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +155,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -130,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +224,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,7 +563,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,13 +607,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>12000000</v>
+        <v>120000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>12000000</v>
+        <f>D2*5</f>
+        <v>600000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +628,14 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>35000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
+        <f t="shared" ref="F3:F31" si="0">D3*5</f>
+        <v>175000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,13 +649,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +670,14 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>1000</v>
+        <v>35000</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +691,14 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="E6" s="2">
         <v>14</v>
       </c>
-      <c r="F6" s="2">
-        <v>40</v>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +712,15 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>12000000</v>
+        <f>D2</f>
+        <v>120000000</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>12000000</v>
+        <f t="shared" si="0"/>
+        <v>600000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +734,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>1000</v>
+        <f t="shared" ref="D8:D31" si="1">D3</f>
+        <v>35000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +756,15 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +778,15 @@
         <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E10" s="1">
         <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -682,14 +799,16 @@
       <c r="C11" s="2">
         <v>14</v>
       </c>
-      <c r="D11" s="2">
-        <v>40</v>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
       </c>
-      <c r="F11" s="2">
-        <v>40</v>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -703,13 +822,15 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>12000000</v>
+        <f t="shared" si="1"/>
+        <v>120000000</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>12000000</v>
+        <f t="shared" si="0"/>
+        <v>600000000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +844,15 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E13" s="1">
         <v>30</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +866,15 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +888,15 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -782,14 +909,16 @@
       <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="2">
-        <v>40</v>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
       </c>
-      <c r="F16" s="2">
-        <v>40</v>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,13 +932,15 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>12000000</v>
+        <f t="shared" si="1"/>
+        <v>120000000</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>12000000</v>
+        <f t="shared" si="0"/>
+        <v>600000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +954,15 @@
         <v>30</v>
       </c>
       <c r="D18" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E18" s="1">
         <v>30</v>
       </c>
       <c r="F18" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +976,15 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +998,15 @@
         <v>46</v>
       </c>
       <c r="D20" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E20" s="1">
         <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -882,14 +1019,16 @@
       <c r="C21" s="2">
         <v>14</v>
       </c>
-      <c r="D21" s="2">
-        <v>40</v>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
       </c>
-      <c r="F21" s="2">
-        <v>40</v>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,13 +1042,15 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>12000000</v>
+        <f t="shared" si="1"/>
+        <v>120000000</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1">
-        <v>12000000</v>
+        <f t="shared" si="0"/>
+        <v>600000000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +1064,15 @@
         <v>30</v>
       </c>
       <c r="D23" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E23" s="1">
         <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +1086,15 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +1108,15 @@
         <v>46</v>
       </c>
       <c r="D25" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E25" s="1">
         <v>46</v>
       </c>
       <c r="F25" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -982,14 +1129,16 @@
       <c r="C26" s="2">
         <v>14</v>
       </c>
-      <c r="D26" s="2">
-        <v>40</v>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="E26" s="2">
         <v>14</v>
       </c>
-      <c r="F26" s="2">
-        <v>40</v>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,13 +1152,15 @@
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>12000000</v>
+        <f t="shared" si="1"/>
+        <v>120000000</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>12000000</v>
+        <f t="shared" si="0"/>
+        <v>600000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1174,15 @@
         <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E28" s="1">
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1196,15 @@
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>500000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,13 +1218,15 @@
         <v>46</v>
       </c>
       <c r="D30" s="1">
-        <v>1000</v>
+        <f t="shared" si="1"/>
+        <v>35000</v>
       </c>
       <c r="E30" s="1">
         <v>46</v>
       </c>
       <c r="F30" s="1">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>175000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1082,14 +1239,16 @@
       <c r="C31" s="2">
         <v>14</v>
       </c>
-      <c r="D31" s="2">
-        <v>40</v>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
-      <c r="F31" s="2">
-        <v>40</v>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -1097,4 +1256,414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F568DDD6-48D9-46F0-AF22-D76F6F5901D5}">
+  <dimension ref="B4:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>72000000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>72000000</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7+E7</f>
+        <v>144000000</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3">
+        <f>D7*10</f>
+        <v>720000000</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3">
+        <f>(K7/L7)</f>
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" ref="F8:F11" si="0">D8+E8</f>
+        <v>12000</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="I8" s="6">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3">
+        <v>200000</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="6">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3">
+        <v>600000</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" ref="M8:M11" si="1">(K9/L9)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="6">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3">
+        <v>200000</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>240</v>
+      </c>
+      <c r="E11" s="3">
+        <v>240</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="I11" s="7">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" ref="K8:K11" si="2">D11*10</f>
+        <v>2400</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="I16" s="6">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="3">
+        <f>SUMIF(BokPass!C:C,I16,BokPass!D:D)</f>
+        <v>720000000</v>
+      </c>
+      <c r="L16" s="3">
+        <f>SUMIF(BokPass!E:E,I16,BokPass!F:F)</f>
+        <v>3600000000</v>
+      </c>
+      <c r="M16" s="3">
+        <f>K16+L16</f>
+        <v>4320000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="6">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="3">
+        <f>SUMIF(BokPass!C:C,I17,BokPass!D:D)</f>
+        <v>210000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>SUMIF(BokPass!E:E,I17,BokPass!F:F)</f>
+        <v>1050000</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" ref="M17:M20" si="3">K17+L17</f>
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="6">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="3">
+        <f>SUMIF(BokPass!C:C,I18,BokPass!D:D)</f>
+        <v>600000</v>
+      </c>
+      <c r="L18" s="3">
+        <f>SUMIF(BokPass!E:E,I18,BokPass!F:F)</f>
+        <v>3000000</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="3"/>
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="I19" s="6">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3">
+        <f>SUMIF(BokPass!C:C,I19,BokPass!D:D)</f>
+        <v>210000</v>
+      </c>
+      <c r="L19" s="3">
+        <f>SUMIF(BokPass!E:E,I19,BokPass!F:F)</f>
+        <v>1050000</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="3"/>
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="I20" s="7">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3">
+        <f>SUMIF(BokPass!C:C,I20,BokPass!D:D)</f>
+        <v>2400</v>
+      </c>
+      <c r="L20" s="3">
+        <f>SUMIF(BokPass!E:E,I20,BokPass!F:F)</f>
+        <v>12000</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J14:K14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>